--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H2">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I2">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J2">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>88.2823593152297</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="N2">
-        <v>88.2823593152297</v>
+        <v>0.431756</v>
       </c>
       <c r="O2">
-        <v>0.410604801657064</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="P2">
-        <v>0.410604801657064</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="Q2">
-        <v>84.62778990949008</v>
+        <v>0.1678274909768889</v>
       </c>
       <c r="R2">
-        <v>84.62778990949008</v>
+        <v>1.510447418792</v>
       </c>
       <c r="S2">
-        <v>0.06523452794776295</v>
+        <v>0.0001081633740375064</v>
       </c>
       <c r="T2">
-        <v>0.06523452794776295</v>
+        <v>0.0001115039038846918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H3">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I3">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J3">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>126.723307834671</v>
+        <v>0.1134506666666667</v>
       </c>
       <c r="N3">
-        <v>126.723307834671</v>
+        <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.589395198342936</v>
+        <v>0.0004748565837253468</v>
       </c>
       <c r="P3">
-        <v>0.589395198342936</v>
+        <v>0.0004752618049133599</v>
       </c>
       <c r="Q3">
-        <v>121.4774226159372</v>
+        <v>0.1322979233848889</v>
       </c>
       <c r="R3">
-        <v>121.4774226159372</v>
+        <v>1.190681310464</v>
       </c>
       <c r="S3">
-        <v>0.09363971727415886</v>
+        <v>8.526487340167453E-05</v>
       </c>
       <c r="T3">
-        <v>0.09363971727415886</v>
+        <v>8.789820337172525E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.51785709451082</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H4">
-        <v>4.51785709451082</v>
+        <v>3.498382</v>
       </c>
       <c r="I4">
-        <v>0.7487673894634199</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J4">
-        <v>0.7487673894634199</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.2823593152297</v>
+        <v>99.31538866666666</v>
       </c>
       <c r="N4">
-        <v>88.2823593152297</v>
+        <v>297.946166</v>
       </c>
       <c r="O4">
-        <v>0.410604801657064</v>
+        <v>0.4156922789371741</v>
       </c>
       <c r="P4">
-        <v>0.410604801657064</v>
+        <v>0.4160470119763526</v>
       </c>
       <c r="Q4">
-        <v>398.8470833524639</v>
+        <v>115.8143893448236</v>
       </c>
       <c r="R4">
-        <v>398.8470833524639</v>
+        <v>1042.329504103412</v>
       </c>
       <c r="S4">
-        <v>0.3074474854379051</v>
+        <v>0.07464137752827751</v>
       </c>
       <c r="T4">
-        <v>0.3074474854379051</v>
+        <v>0.07694661025319027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.51785709451082</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H5">
-        <v>4.51785709451082</v>
+        <v>3.498382</v>
       </c>
       <c r="I5">
-        <v>0.7487673894634199</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J5">
-        <v>0.7487673894634199</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>126.723307834671</v>
+        <v>138.7317683333333</v>
       </c>
       <c r="N5">
-        <v>126.723307834671</v>
+        <v>416.195305</v>
       </c>
       <c r="O5">
-        <v>0.589395198342936</v>
+        <v>0.5806725998226211</v>
       </c>
       <c r="P5">
-        <v>0.589395198342936</v>
+        <v>0.5811681196254651</v>
       </c>
       <c r="Q5">
-        <v>572.5177953407469</v>
+        <v>161.7789070551678</v>
       </c>
       <c r="R5">
-        <v>572.5177953407469</v>
+        <v>1456.01016349651</v>
       </c>
       <c r="S5">
-        <v>0.4413199040255147</v>
+        <v>0.1042651137387068</v>
       </c>
       <c r="T5">
-        <v>0.4413199040255147</v>
+        <v>0.1074852492750071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.557265048993744</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H6">
-        <v>0.557265048993744</v>
+        <v>3.498382</v>
       </c>
       <c r="I6">
-        <v>0.09235836531465817</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J6">
-        <v>0.09235836531465817</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>88.2823593152297</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N6">
-        <v>88.2823593152297</v>
+        <v>1.222236</v>
       </c>
       <c r="O6">
-        <v>0.410604801657064</v>
+        <v>0.002557881890510999</v>
       </c>
       <c r="P6">
-        <v>0.410604801657064</v>
+        <v>0.001706709781021076</v>
       </c>
       <c r="Q6">
-        <v>49.19667328908479</v>
+        <v>0.712641403692</v>
       </c>
       <c r="R6">
-        <v>49.19667328908479</v>
+        <v>4.275848422152</v>
       </c>
       <c r="S6">
-        <v>0.03792278827139588</v>
+        <v>0.000459291253497713</v>
       </c>
       <c r="T6">
-        <v>0.03792278827139588</v>
+        <v>0.0003156507042598369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.616901666666666</v>
+      </c>
+      <c r="H7">
+        <v>13.850705</v>
+      </c>
+      <c r="I7">
+        <v>0.7109062584872947</v>
+      </c>
+      <c r="J7">
+        <v>0.7322371094632414</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.431756</v>
+      </c>
+      <c r="O7">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P7">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q7">
+        <v>0.6644583319977777</v>
+      </c>
+      <c r="R7">
+        <v>5.980124987979999</v>
+      </c>
+      <c r="S7">
+        <v>0.0004282376783319147</v>
+      </c>
+      <c r="T7">
+        <v>0.0004414634191049518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.616901666666666</v>
+      </c>
+      <c r="H8">
+        <v>13.850705</v>
+      </c>
+      <c r="I8">
+        <v>0.7109062584872947</v>
+      </c>
+      <c r="J8">
+        <v>0.7322371094632414</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.340352</v>
+      </c>
+      <c r="O8">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P8">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q8">
+        <v>0.5237905720177777</v>
+      </c>
+      <c r="R8">
+        <v>4.714115148159999</v>
+      </c>
+      <c r="S8">
+        <v>0.0003375785172542451</v>
+      </c>
+      <c r="T8">
+        <v>0.0003480043302680416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.616901666666666</v>
+      </c>
+      <c r="H9">
+        <v>13.850705</v>
+      </c>
+      <c r="I9">
+        <v>0.7109062584872947</v>
+      </c>
+      <c r="J9">
+        <v>0.7322371094632414</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N9">
+        <v>297.946166</v>
+      </c>
+      <c r="O9">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P9">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q9">
+        <v>458.529383460781</v>
+      </c>
+      <c r="R9">
+        <v>4126.76445114703</v>
+      </c>
+      <c r="S9">
+        <v>0.2955182427012833</v>
+      </c>
+      <c r="T9">
+        <v>0.304645061450383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.616901666666666</v>
+      </c>
+      <c r="H10">
+        <v>13.850705</v>
+      </c>
+      <c r="I10">
+        <v>0.7109062584872947</v>
+      </c>
+      <c r="J10">
+        <v>0.7322371094632414</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N10">
+        <v>416.195305</v>
+      </c>
+      <c r="O10">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P10">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q10">
+        <v>640.5109324377804</v>
+      </c>
+      <c r="R10">
+        <v>5764.598391940024</v>
+      </c>
+      <c r="S10">
+        <v>0.4128037853459897</v>
+      </c>
+      <c r="T10">
+        <v>0.4255528640267379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.616901666666666</v>
+      </c>
+      <c r="H11">
+        <v>13.850705</v>
+      </c>
+      <c r="I11">
+        <v>0.7109062584872947</v>
+      </c>
+      <c r="J11">
+        <v>0.7322371094632414</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.222236</v>
+      </c>
+      <c r="O11">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P11">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q11">
+        <v>2.82147171273</v>
+      </c>
+      <c r="R11">
+        <v>16.92883027638</v>
+      </c>
+      <c r="S11">
+        <v>0.001818414244435582</v>
+      </c>
+      <c r="T11">
+        <v>0.001249716236747515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.431383</v>
+      </c>
+      <c r="I12">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J12">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.431756</v>
+      </c>
+      <c r="O12">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P12">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q12">
+        <v>0.02069468872755556</v>
+      </c>
+      <c r="R12">
+        <v>0.186252198548</v>
+      </c>
+      <c r="S12">
+        <v>1.333754883898375E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.374946720212086E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.431383</v>
+      </c>
+      <c r="I13">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J13">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.340352</v>
+      </c>
+      <c r="O13">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P13">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q13">
+        <v>0.01631356297955555</v>
+      </c>
+      <c r="R13">
+        <v>0.146822066816</v>
+      </c>
+      <c r="S13">
+        <v>1.051395098723769E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.083866503575223E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="H7">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="I7">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="J7">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>126.723307834671</v>
-      </c>
-      <c r="N7">
-        <v>126.723307834671</v>
-      </c>
-      <c r="O7">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="P7">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="Q7">
-        <v>70.61847034913724</v>
-      </c>
-      <c r="R7">
-        <v>70.61847034913724</v>
-      </c>
-      <c r="S7">
-        <v>0.05443557704326229</v>
-      </c>
-      <c r="T7">
-        <v>0.05443557704326229</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.431383</v>
+      </c>
+      <c r="I14">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J14">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N14">
+        <v>297.946166</v>
+      </c>
+      <c r="O14">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P14">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q14">
+        <v>14.28099010306422</v>
+      </c>
+      <c r="R14">
+        <v>128.528910927578</v>
+      </c>
+      <c r="S14">
+        <v>0.009203975255498381</v>
+      </c>
+      <c r="T14">
+        <v>0.009488231865717343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.431383</v>
+      </c>
+      <c r="I15">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J15">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N15">
+        <v>416.195305</v>
+      </c>
+      <c r="O15">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P15">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q15">
+        <v>19.94884213964611</v>
+      </c>
+      <c r="R15">
+        <v>179.539579256815</v>
+      </c>
+      <c r="S15">
+        <v>0.01285685712993736</v>
+      </c>
+      <c r="T15">
+        <v>0.01325392975609879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.431383</v>
+      </c>
+      <c r="I16">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J16">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.222236</v>
+      </c>
+      <c r="O16">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P16">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q16">
+        <v>0.08787530539800001</v>
+      </c>
+      <c r="R16">
+        <v>0.527251832388</v>
+      </c>
+      <c r="S16">
+        <v>5.663487829733973E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.892266417896078E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.135131</v>
+      </c>
+      <c r="I17">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J17">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.431756</v>
+      </c>
+      <c r="O17">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P17">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q17">
+        <v>0.08168327000600001</v>
+      </c>
+      <c r="R17">
+        <v>0.490099620036</v>
+      </c>
+      <c r="S17">
+        <v>5.264416476012428E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.618002205606307E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.135131</v>
+      </c>
+      <c r="I18">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J18">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.340352</v>
+      </c>
+      <c r="O18">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P18">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q18">
+        <v>0.064390684352</v>
+      </c>
+      <c r="R18">
+        <v>0.386344106112</v>
+      </c>
+      <c r="S18">
+        <v>4.149924208218952E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.852060623784077E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.135131</v>
+      </c>
+      <c r="I19">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J19">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N19">
+        <v>297.946166</v>
+      </c>
+      <c r="O19">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P19">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q19">
+        <v>56.367988226291</v>
+      </c>
+      <c r="R19">
+        <v>338.207929357746</v>
+      </c>
+      <c r="S19">
+        <v>0.03632868345211494</v>
+      </c>
+      <c r="T19">
+        <v>0.02496710840706193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.135131</v>
+      </c>
+      <c r="I20">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J20">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N20">
+        <v>416.195305</v>
+      </c>
+      <c r="O20">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P20">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q20">
+        <v>78.7393654599925</v>
+      </c>
+      <c r="R20">
+        <v>472.436192759955</v>
+      </c>
+      <c r="S20">
+        <v>0.05074684360798733</v>
+      </c>
+      <c r="T20">
+        <v>0.03487607656762129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.135131</v>
+      </c>
+      <c r="I21">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J21">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.222236</v>
+      </c>
+      <c r="O21">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P21">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q21">
+        <v>0.346849493229</v>
+      </c>
+      <c r="R21">
+        <v>1.387397972916</v>
+      </c>
+      <c r="S21">
+        <v>0.0002235415142803642</v>
+      </c>
+      <c r="T21">
+        <v>0.0001024201758347639</v>
       </c>
     </row>
   </sheetData>
